--- a/Excel/Bailey/01.03.2022 BETMAR — загрузка.xlsx
+++ b/Excel/Bailey/01.03.2022 BETMAR — загрузка.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F3FD5C-A620-423D-8762-AF6F4F498B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Bailey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D847AE-43B5-47F7-9B0A-F597FC540C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BDF2411-D40D-4D90-9040-460EF0CE7EC2}"/>
   </bookViews>
@@ -4197,9 +4202,9 @@
   </sheetPr>
   <dimension ref="A1:V401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ2" sqref="AQ2:AR401"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V395" sqref="V395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22735,7 +22740,7 @@
         <v>963</v>
       </c>
       <c r="U273" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="V273" t="s">
         <v>964</v>
@@ -22803,7 +22808,7 @@
         <v>963</v>
       </c>
       <c r="U274" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="V274" t="s">
         <v>964</v>
@@ -22871,7 +22876,7 @@
         <v>963</v>
       </c>
       <c r="U275" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="V275" t="s">
         <v>964</v>
@@ -22939,7 +22944,7 @@
         <v>963</v>
       </c>
       <c r="U276" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="V276" t="s">
         <v>964</v>
@@ -23007,7 +23012,7 @@
         <v>963</v>
       </c>
       <c r="U277" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="V277" t="s">
         <v>964</v>
@@ -26871,7 +26876,7 @@
         <v>1080</v>
       </c>
       <c r="U335" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="V335" t="s">
         <v>1081</v>
@@ -26939,7 +26944,7 @@
         <v>1080</v>
       </c>
       <c r="U336" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="V336" t="s">
         <v>1081</v>
@@ -27007,7 +27012,7 @@
         <v>1080</v>
       </c>
       <c r="U337" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="V337" t="s">
         <v>1081</v>
@@ -27075,7 +27080,7 @@
         <v>1080</v>
       </c>
       <c r="U338" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="V338" t="s">
         <v>1081</v>
@@ -27143,7 +27148,7 @@
         <v>1080</v>
       </c>
       <c r="U339" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="V339" t="s">
         <v>1081</v>
@@ -28503,7 +28508,7 @@
         <v>1121</v>
       </c>
       <c r="U359" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V359" t="s">
         <v>1122</v>
@@ -28571,7 +28576,7 @@
         <v>1121</v>
       </c>
       <c r="U360" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V360" t="s">
         <v>1122</v>
@@ -28639,7 +28644,7 @@
         <v>1121</v>
       </c>
       <c r="U361" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V361" t="s">
         <v>1122</v>
@@ -28707,7 +28712,7 @@
         <v>1121</v>
       </c>
       <c r="U362" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V362" t="s">
         <v>1122</v>
@@ -28775,7 +28780,7 @@
         <v>1121</v>
       </c>
       <c r="U363" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V363" t="s">
         <v>1122</v>

--- a/Excel/Bailey/01.03.2022 BETMAR — загрузка.xlsx
+++ b/Excel/Bailey/01.03.2022 BETMAR — загрузка.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Bailey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D847AE-43B5-47F7-9B0A-F597FC540C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D05C1-427F-4CEA-8264-F867F2276517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BDF2411-D40D-4D90-9040-460EF0CE7EC2}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7593" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7593" uniqueCount="1224">
   <si>
     <t>Артикул характеристики</t>
   </si>
@@ -3731,6 +3731,9 @@
   </si>
   <si>
     <t>21-009-20</t>
+  </si>
+  <si>
+    <t>пурпурный</t>
   </si>
 </sst>
 </file>
@@ -3859,7 +3862,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -3875,6 +3878,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4203,8 +4207,8 @@
   <dimension ref="A1:V401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V395" sqref="V395"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4633,8 +4637,8 @@
       <c r="T6" t="s">
         <v>70</v>
       </c>
-      <c r="U6" t="s">
-        <v>67</v>
+      <c r="U6" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="V6" t="s">
         <v>71</v>
@@ -4769,8 +4773,8 @@
       <c r="T8" t="s">
         <v>84</v>
       </c>
-      <c r="U8" t="s">
-        <v>82</v>
+      <c r="U8" s="13" t="s">
+        <v>1179</v>
       </c>
       <c r="V8" t="s">
         <v>85</v>
@@ -5654,7 +5658,7 @@
         <v>167</v>
       </c>
       <c r="U21" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="V21" t="s">
         <v>168</v>
@@ -5790,7 +5794,7 @@
         <v>178</v>
       </c>
       <c r="U23" t="s">
-        <v>176</v>
+        <v>1223</v>
       </c>
       <c r="V23" t="s">
         <v>179</v>
@@ -9118,7 +9122,7 @@
         <v>492</v>
       </c>
       <c r="U72" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V72" t="s">
         <v>493</v>
@@ -9186,7 +9190,7 @@
         <v>492</v>
       </c>
       <c r="U73" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V73" t="s">
         <v>493</v>
@@ -9254,7 +9258,7 @@
         <v>492</v>
       </c>
       <c r="U74" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V74" t="s">
         <v>493</v>
@@ -11674,7 +11678,7 @@
         <v>596</v>
       </c>
       <c r="U110" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V110" t="s">
         <v>597</v>
@@ -11742,7 +11746,7 @@
         <v>596</v>
       </c>
       <c r="U111" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V111" t="s">
         <v>597</v>
@@ -11810,7 +11814,7 @@
         <v>596</v>
       </c>
       <c r="U112" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V112" t="s">
         <v>597</v>
@@ -12422,7 +12426,7 @@
         <v>625</v>
       </c>
       <c r="U121" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V121" t="s">
         <v>626</v>
@@ -15550,7 +15554,7 @@
         <v>729</v>
       </c>
       <c r="U167" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V167" t="s">
         <v>730</v>
@@ -15618,7 +15622,7 @@
         <v>729</v>
       </c>
       <c r="U168" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V168" t="s">
         <v>730</v>
@@ -30480,7 +30484,7 @@
         <v>1191</v>
       </c>
       <c r="U388" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V388" t="s">
         <v>1192</v>
@@ -30548,7 +30552,7 @@
         <v>1191</v>
       </c>
       <c r="U389" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V389" t="s">
         <v>1192</v>
@@ -30616,7 +30620,7 @@
         <v>1191</v>
       </c>
       <c r="U390" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V390" t="s">
         <v>1192</v>
@@ -30684,7 +30688,7 @@
         <v>1191</v>
       </c>
       <c r="U391" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V391" t="s">
         <v>1192</v>
@@ -30752,7 +30756,7 @@
         <v>1191</v>
       </c>
       <c r="U392" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="V392" t="s">
         <v>1192</v>
